--- a/以太网配置/README.xlsx
+++ b/以太网配置/README.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
     <t>E1x</t>
   </si>
   <si>
-    <t>CHN 平台化以太网控制器配置要求V1.8 - 20240401</t>
+    <t>ASE&amp;G车载以太设计规范说明书V1.2</t>
   </si>
   <si>
     <t>AVATR所有项目复用同一份以太网配置</t>
@@ -799,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,12 +808,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1138,14 +1132,14 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.66666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5555555555556" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.7777777777778" style="3" customWidth="1"/>
+    <col min="3" max="3" width="64.7777777777778" style="2" customWidth="1"/>
     <col min="4" max="4" width="47.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
@@ -1157,7 +1151,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1165,67 +1159,61 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4"/>
+    <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4"/>
+    <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4"/>
+    <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
+    <row r="6" spans="2:4">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:4">
-      <c r="A7" s="4"/>
+    <row r="7" ht="28.8" spans="2:4">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="43.2" spans="1:4">
-      <c r="A8" s="4"/>
+    <row r="8" ht="43.2" spans="2:4">
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1236,7 +1224,7 @@
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
@@ -1247,7 +1235,7 @@
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1255,18 +1243,18 @@
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="43.2" spans="2:4">
+    <row r="12" ht="28.8" spans="2:4">
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1274,7 +1262,7 @@
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1282,7 +1270,7 @@
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1290,7 +1278,7 @@
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
@@ -1301,10 +1289,10 @@
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1315,7 +1303,7 @@
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D17" t="s">
@@ -1329,7 +1317,7 @@
       <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D18" t="s">
@@ -1340,7 +1328,7 @@
       <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D19" t="s">
@@ -1351,7 +1339,7 @@
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D20" t="s">
